--- a/Data/EUDA/Tampon/compo_menages_global.xlsx
+++ b/Data/EUDA/Tampon/compo_menages_global.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Alone.global</t>
+          <t>Alone.global.menage</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>With the family of origin (parents, etc.).global</t>
+          <t>With the family of origin (parents, etc.).global.menage</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>With partner / children.global</t>
+          <t>With partner / children.global.menage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>With friends or other people (with no family relation).global</t>
+          <t>With friends or other people (with no family relation).global.menage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>In detention.global</t>
+          <t>In detention.global.menage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>In institutions /shelters (not detention).global</t>
+          <t>In institutions /shelters (not detention).global.menage</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Other.global</t>
+          <t>Other.global.menage</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.global</t>
+          <t>Not known / missing.global.menage</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total.global</t>
+          <t>Total.global.menage</t>
         </is>
       </c>
     </row>
